--- a/doc/SED_ProductPlaningMeeting_scrum_v02.xlsx
+++ b/doc/SED_ProductPlaningMeeting_scrum_v02.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\git\ch.bfh.btx8081.w2020.red\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95268DA7-7257-4AC0-830D-BB9524955D20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2DF145-6DFF-4D52-A9AD-0A317C8A9417}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="161">
   <si>
     <t>ID</t>
   </si>
@@ -1320,8 +1320,8 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="K2">
         <f>SUM(K3:K12)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
         <v>9</v>
@@ -1597,11 +1597,11 @@
       <c r="I7">
         <v>6</v>
       </c>
-      <c r="J7" t="s">
-        <v>92</v>
+      <c r="J7">
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L7" t="s">
         <v>10</v>
@@ -1749,11 +1749,11 @@
       <c r="I11">
         <v>2</v>
       </c>
-      <c r="J11" t="s">
-        <v>92</v>
+      <c r="J11">
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11" t="s">
         <v>10</v>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="K13">
         <f>SUM(K14:K23)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2072,10 +2072,10 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L20" t="s">
         <v>10</v>
@@ -2534,11 +2534,11 @@
       </c>
       <c r="J35">
         <f t="shared" ref="J35:K35" si="1">SUM(J36:J43)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2598,11 +2598,14 @@
       <c r="I37">
         <v>2</v>
       </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
       <c r="K37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2634,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">

--- a/doc/SED_ProductPlaningMeeting_scrum_v02.xlsx
+++ b/doc/SED_ProductPlaningMeeting_scrum_v02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\git\ch.bfh.btx8081.w2020.red\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2DF145-6DFF-4D52-A9AD-0A317C8A9417}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C942F5D-625D-49B0-8C22-40AF4500B48B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1321,7 +1321,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="J35">
         <f t="shared" ref="J35:K35" si="1">SUM(J36:J43)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
@@ -2599,7 +2599,7 @@
         <v>2</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K37">
         <v>4</v>
